--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_14_20.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_14_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>645707.1393246806</v>
+        <v>643185.7178754914</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -659,22 +659,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>99.84324036510354</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>118.0579154674762</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -719,13 +719,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>7.085048196145635</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,25 +814,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>61.40238349634289</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
         <v>194.6624603617375</v>
@@ -874,16 +874,16 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>108.4721783769034</v>
       </c>
     </row>
     <row r="5">
@@ -896,25 +896,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>187.6522591728075</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>233.3934276525042</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1060,19 +1060,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>23.72972425580025</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>21.27014120655543</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
         <v>220.7486959972119</v>
@@ -1120,7 +1120,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1133,19 +1133,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>275.04287909403</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>134.0513867710694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1291,25 +1291,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,10 +1339,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -1351,10 +1351,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>26.66925886831028</v>
       </c>
       <c r="X10" t="n">
-        <v>136.300382667446</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>332.4423155261908</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8432760127576</v>
+        <v>359.5517498754676</v>
       </c>
       <c r="H11" t="n">
         <v>283.5630920045443</v>
@@ -1528,25 +1528,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>111.3598553131475</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.4539897919539</v>
       </c>
       <c r="I13" t="n">
-        <v>81.80457674440902</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,19 +1573,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T13" t="n">
-        <v>119.8558466642952</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U13" t="n">
         <v>286.1854515484204</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1610,7 +1610,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206807</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.154082144415</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1734,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T15" t="n">
         <v>188.3046392154443</v>
@@ -1771,19 +1771,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>99.9742741983373</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,19 +1810,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012171</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>176.762144112141</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634816</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1853,7 +1853,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417092</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1938,7 +1938,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2002,10 +2002,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>101.6969570046897</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182199</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2017,10 +2017,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2056,13 +2056,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892407</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>148.0280580960871</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2084,7 +2084,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2096,7 +2096,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2236,25 +2236,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>179.831980181942</v>
       </c>
       <c r="C22" t="n">
-        <v>110.017717176684</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>99.97427419833345</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2296,7 +2296,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.1376433238297</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2476,25 +2476,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>22.65115569188744</v>
       </c>
       <c r="D25" t="n">
-        <v>28.75188085812005</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2716,19 +2716,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2801,10 +2801,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417101</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2953,19 +2953,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3010,7 +3010,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>229.2938944146487</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3029,7 +3029,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3080,7 +3080,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3190,19 +3190,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3250,7 +3250,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>168.4805514670904</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3323,7 +3323,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3427,19 +3427,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3478,7 +3478,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3512,7 +3512,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3661,19 +3661,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>22.65115569188744</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>19.91555826189063</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3901,22 +3901,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3949,7 +3949,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>78.9105100867805</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>122.6028762599951</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4141,16 +4141,16 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4304,40 +4304,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1257.650691388937</v>
+        <v>897.7254217792827</v>
       </c>
       <c r="C2" t="n">
-        <v>1257.650691388937</v>
+        <v>528.762904838871</v>
       </c>
       <c r="D2" t="n">
-        <v>1257.650691388937</v>
+        <v>170.4972062321205</v>
       </c>
       <c r="E2" t="n">
-        <v>871.862438790693</v>
+        <v>170.4972062321205</v>
       </c>
       <c r="F2" t="n">
-        <v>771.0106808461439</v>
+        <v>170.4972062321205</v>
       </c>
       <c r="G2" t="n">
-        <v>355.3059305704328</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
         <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4358,7 +4358,7 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.89447953245</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
         <v>1975.31341879663</v>
@@ -4367,13 +4367,13 @@
         <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>1644.250531453059</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X2" t="n">
-        <v>1644.250531453059</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="Y2" t="n">
-        <v>1644.250531453059</v>
+        <v>1284.325261843404</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4383,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057878</v>
+        <v>71.67401812057915</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>423.1489515180662</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L3" t="n">
-        <v>717.8525085495379</v>
+        <v>932.4978103100998</v>
       </c>
       <c r="M3" t="n">
-        <v>1081.114527508758</v>
+        <v>1295.75982926932</v>
       </c>
       <c r="N3" t="n">
-        <v>1468.399656105703</v>
+        <v>1683.044957866265</v>
       </c>
       <c r="O3" t="n">
-        <v>2102.578639884742</v>
+        <v>2015.115393042427</v>
       </c>
       <c r="P3" t="n">
-        <v>2349.761373717039</v>
+        <v>2262.298126874724</v>
       </c>
       <c r="Q3" t="n">
         <v>2562.339328400155</v>
@@ -4440,16 +4440,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,40 +4462,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>644.9053651971361</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="C4" t="n">
-        <v>644.9053651971361</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="D4" t="n">
-        <v>494.7887257848004</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E4" t="n">
-        <v>346.8756322024072</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F4" t="n">
-        <v>199.9856847044969</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G4" t="n">
-        <v>199.9856847044969</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
         <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
@@ -4510,28 +4510,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1574.423510482232</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>1377.794762642093</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T4" t="n">
-        <v>1154.816281836828</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U4" t="n">
-        <v>865.6979443406663</v>
+        <v>825.137147448514</v>
       </c>
       <c r="V4" t="n">
-        <v>865.6979443406663</v>
+        <v>570.4526592426272</v>
       </c>
       <c r="W4" t="n">
-        <v>865.6979443406663</v>
+        <v>570.4526592426272</v>
       </c>
       <c r="X4" t="n">
-        <v>865.6979443406663</v>
+        <v>342.4631083446099</v>
       </c>
       <c r="Y4" t="n">
-        <v>644.9053651971361</v>
+        <v>232.8952513982428</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1505.18439714251</v>
+        <v>1330.099343395678</v>
       </c>
       <c r="C5" t="n">
-        <v>1136.221880202098</v>
+        <v>1330.099343395678</v>
       </c>
       <c r="D5" t="n">
-        <v>777.9561815953474</v>
+        <v>1330.099343395678</v>
       </c>
       <c r="E5" t="n">
-        <v>777.9561815953474</v>
+        <v>944.3110907974335</v>
       </c>
       <c r="F5" t="n">
-        <v>366.9702768057398</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G5" t="n">
-        <v>355.3059305704328</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H5" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4592,25 +4592,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U5" t="n">
-        <v>2437.640120926625</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="V5" t="n">
-        <v>2248.092384388436</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="W5" t="n">
-        <v>1895.323729118321</v>
+        <v>1955.989612394221</v>
       </c>
       <c r="X5" t="n">
-        <v>1895.323729118321</v>
+        <v>1720.23867537149</v>
       </c>
       <c r="Y5" t="n">
-        <v>1505.18439714251</v>
+        <v>1330.099343395678</v>
       </c>
     </row>
     <row r="6">
@@ -4641,25 +4641,25 @@
         <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500113</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K6" t="n">
-        <v>560.1394111735141</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L6" t="n">
-        <v>854.8429682049857</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M6" t="n">
-        <v>1218.104987164206</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N6" t="n">
-        <v>1605.390115761151</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O6" t="n">
-        <v>1937.460550937313</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P6" t="n">
         <v>2239.046898434118</v>
@@ -4699,49 +4699,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>619.8914390106347</v>
+        <v>223.9551031446992</v>
       </c>
       <c r="C7" t="n">
-        <v>619.8914390106347</v>
+        <v>223.9551031446992</v>
       </c>
       <c r="D7" t="n">
-        <v>619.8914390106347</v>
+        <v>223.9551031446992</v>
       </c>
       <c r="E7" t="n">
-        <v>471.9783454282416</v>
+        <v>223.9551031446992</v>
       </c>
       <c r="F7" t="n">
-        <v>325.0883979303312</v>
+        <v>223.9551031446992</v>
       </c>
       <c r="G7" t="n">
-        <v>157.1019332386098</v>
+        <v>223.9551031446992</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386098</v>
+        <v>75.21620500820538</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
@@ -4750,25 +4750,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1614.961128956764</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T7" t="n">
-        <v>1391.9826481515</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U7" t="n">
-        <v>1391.9826481515</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="V7" t="n">
-        <v>1137.298159945613</v>
+        <v>962.1544032232072</v>
       </c>
       <c r="W7" t="n">
-        <v>847.8809899086521</v>
+        <v>672.7372331862466</v>
       </c>
       <c r="X7" t="n">
-        <v>619.8914390106347</v>
+        <v>444.7476822882293</v>
       </c>
       <c r="Y7" t="n">
-        <v>619.8914390106347</v>
+        <v>223.9551031446992</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2303.170539913434</v>
+        <v>1422.200456328343</v>
       </c>
       <c r="C8" t="n">
-        <v>1934.208022973022</v>
+        <v>1422.200456328343</v>
       </c>
       <c r="D8" t="n">
-        <v>1575.942324366272</v>
+        <v>1063.934757721593</v>
       </c>
       <c r="E8" t="n">
-        <v>1190.154071768027</v>
+        <v>786.1136677276231</v>
       </c>
       <c r="F8" t="n">
-        <v>779.1681669784198</v>
+        <v>375.1277629380156</v>
       </c>
       <c r="G8" t="n">
         <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136266</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V8" t="n">
-        <v>3215.315153136266</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="W8" t="n">
-        <v>3215.315153136266</v>
+        <v>2182.266054653545</v>
       </c>
       <c r="X8" t="n">
-        <v>3079.909711953368</v>
+        <v>1808.800296392465</v>
       </c>
       <c r="Y8" t="n">
-        <v>2689.770379977556</v>
+        <v>1808.800296392465</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387314</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158141</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>774.7644039315074</v>
+        <v>533.4780323548192</v>
       </c>
       <c r="C10" t="n">
-        <v>774.7644039315074</v>
+        <v>364.5418494269123</v>
       </c>
       <c r="D10" t="n">
-        <v>624.6477645191717</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E10" t="n">
-        <v>624.6477645191717</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4987,25 +4987,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U10" t="n">
-        <v>1638.191681214136</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V10" t="n">
-        <v>1383.507193008249</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W10" t="n">
-        <v>1094.090022971289</v>
+        <v>943.1160480830763</v>
       </c>
       <c r="X10" t="n">
-        <v>956.4128687617472</v>
+        <v>715.126497185059</v>
       </c>
       <c r="Y10" t="n">
-        <v>956.4128687617472</v>
+        <v>715.126497185059</v>
       </c>
     </row>
     <row r="11">
@@ -5015,19 +5015,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.224468905844</v>
+        <v>2266.424947555046</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.261951965432</v>
+        <v>1897.462430614634</v>
       </c>
       <c r="D11" t="n">
-        <v>1589.996253358682</v>
+        <v>1539.196732007884</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.208000760437</v>
+        <v>1153.40847940964</v>
       </c>
       <c r="F11" t="n">
-        <v>793.22209597083</v>
+        <v>742.422574620032</v>
       </c>
       <c r="G11" t="n">
         <v>379.2389888872365</v>
@@ -5039,10 +5039,10 @@
         <v>92.81162322608057</v>
       </c>
       <c r="J11" t="n">
-        <v>372.3074987251939</v>
+        <v>372.3074987251948</v>
       </c>
       <c r="K11" t="n">
-        <v>841.9378825128758</v>
+        <v>841.9378825128761</v>
       </c>
       <c r="L11" t="n">
         <v>1461.457663018651</v>
@@ -5054,10 +5054,10 @@
         <v>2919.747202874795</v>
       </c>
       <c r="O11" t="n">
-        <v>3602.609239333934</v>
+        <v>3602.609239333933</v>
       </c>
       <c r="P11" t="n">
-        <v>4150.915188021282</v>
+        <v>4150.915188021281</v>
       </c>
       <c r="Q11" t="n">
         <v>4514.49737412729</v>
@@ -5121,25 +5121,25 @@
         <v>92.81162322608056</v>
       </c>
       <c r="K12" t="n">
-        <v>92.81162322608056</v>
+        <v>423.3203657894393</v>
       </c>
       <c r="L12" t="n">
-        <v>583.5439560698319</v>
+        <v>914.0526986331906</v>
       </c>
       <c r="M12" t="n">
-        <v>1175.56231032196</v>
+        <v>1506.071052885318</v>
       </c>
       <c r="N12" t="n">
-        <v>1797.658273721296</v>
+        <v>1506.071052885318</v>
       </c>
       <c r="O12" t="n">
-        <v>2344.53474872149</v>
+        <v>1867.304633125007</v>
       </c>
       <c r="P12" t="n">
-        <v>2552.77562977024</v>
+        <v>2286.888151551083</v>
       </c>
       <c r="Q12" t="n">
-        <v>2552.77562977024</v>
+        <v>2517.44942553633</v>
       </c>
       <c r="R12" t="n">
         <v>2552.77562977024</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.385284034031</v>
+        <v>494.0589900220732</v>
       </c>
       <c r="C13" t="n">
-        <v>929.4491011061237</v>
+        <v>494.0589900220732</v>
       </c>
       <c r="D13" t="n">
-        <v>779.332461693788</v>
+        <v>381.5742876855605</v>
       </c>
       <c r="E13" t="n">
-        <v>631.4193681113949</v>
+        <v>381.5742876855605</v>
       </c>
       <c r="F13" t="n">
-        <v>484.5294206134845</v>
+        <v>234.6843401876502</v>
       </c>
       <c r="G13" t="n">
-        <v>317.3152257880633</v>
+        <v>234.6843401876502</v>
       </c>
       <c r="H13" t="n">
-        <v>175.4425088264937</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I13" t="n">
         <v>92.81162322608056</v>
@@ -5221,28 +5221,28 @@
         <v>2428.375774410168</v>
       </c>
       <c r="R13" t="n">
-        <v>2428.375774410168</v>
+        <v>2360.516429368669</v>
       </c>
       <c r="S13" t="n">
-        <v>2428.375774410168</v>
+        <v>2177.346239107599</v>
       </c>
       <c r="T13" t="n">
-        <v>2307.309262628051</v>
+        <v>1957.667456821981</v>
       </c>
       <c r="U13" t="n">
-        <v>2018.233048942778</v>
+        <v>1668.591243136708</v>
       </c>
       <c r="V13" t="n">
-        <v>2018.233048942778</v>
+        <v>1413.906754930821</v>
       </c>
       <c r="W13" t="n">
-        <v>1728.815878905818</v>
+        <v>1124.48958489386</v>
       </c>
       <c r="X13" t="n">
-        <v>1500.8263280078</v>
+        <v>896.5000339958431</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.03374886427</v>
+        <v>675.7074548523129</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168625</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362699</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192582</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="15">
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756267</v>
+        <v>243.4633055756264</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468473</v>
+        <v>562.8579153358628</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1058.183521551621</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400703</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121634</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>194.8007783998277</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T16" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U16" t="n">
-        <v>2197.062545487568</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V16" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W16" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138402</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>695.50206557031</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406466</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="18">
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273898</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797191</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797191</v>
+        <v>579.1554649516141</v>
       </c>
       <c r="L18" t="n">
-        <v>352.5519571452613</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718132</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>484.8112968429803</v>
+        <v>411.1294017454352</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.38585385471</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648823</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5726,43 +5726,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5771,31 +5771,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5823,28 +5823,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637306</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890282</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400696</v>
+        <v>513.8536007400664</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121596</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998238</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998238</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5944,16 +5944,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648818</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611857</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138395</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703094</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5984,22 +5984,22 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637306</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M24" t="n">
-        <v>1186.520756890282</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N24" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C25" t="n">
-        <v>513.8536007400712</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429803</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="26">
@@ -6215,13 +6215,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
@@ -6233,13 +6233,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6260,13 +6260,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6315,10 +6315,10 @@
         <v>1186.520756890282</v>
       </c>
       <c r="N27" t="n">
-        <v>1814.118720444889</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O27" t="n">
-        <v>2366.028450684176</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6364,16 +6364,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6449,7 +6449,7 @@
         <v>1204.759558406467</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6537,28 +6537,28 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="L30" t="n">
-        <v>427.7414352191925</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M30" t="n">
-        <v>949.9304447718133</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N30" t="n">
-        <v>1577.52840832642</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908938</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797186</v>
@@ -6658,13 +6658,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6674,7 +6674,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
         <v>1948.813509611463</v>
@@ -6692,58 +6692,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6771,31 +6771,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L33" t="n">
-        <v>427.7414352191925</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1815.886107649656</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2367.795837888943</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2367.795837888943</v>
       </c>
       <c r="Q33" t="n">
         <v>2516.421633107662</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6865,43 +6865,43 @@
         <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910805</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570813</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279798</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853356</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580256</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832658</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487563</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510504</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854702</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648815</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611854</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6923,22 +6923,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7014,28 +7014,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>280.8495004245706</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>776.1751066403293</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M36" t="n">
-        <v>1373.553594266881</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7126,19 +7126,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7154,28 +7154,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>352.5519571452614</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>949.9304447718133</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N39" t="n">
-        <v>1577.52840832642</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>560.7825789706076</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C40" t="n">
-        <v>391.8463960427007</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D40" t="n">
-        <v>241.729756630365</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E40" t="n">
-        <v>93.81666304797187</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
         <v>93.81666304797187</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2426.846358063199</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2243.991523718104</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>2024.390058741045</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1735.314832085242</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1480.630343879355</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>1191.213173842395</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X40" t="n">
-        <v>963.2236229443774</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y40" t="n">
-        <v>742.4310438008473</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="41">
@@ -7397,22 +7397,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7424,7 +7424,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>372.4964262156764</v>
       </c>
       <c r="L42" t="n">
-        <v>589.1422692637306</v>
+        <v>867.8220324314351</v>
       </c>
       <c r="M42" t="n">
-        <v>1186.520756890282</v>
+        <v>1465.200520057987</v>
       </c>
       <c r="N42" t="n">
-        <v>1814.118720444889</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="O42" t="n">
-        <v>2366.028450684176</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7597,22 +7597,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7634,34 +7634,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7725,16 +7725,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N45" t="n">
         <v>1307.627092998424</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -8055,13 +8055,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>342.9044714621887</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8070,16 +8070,16 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>305.1601501039157</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>98.24448441976799</v>
+        <v>186.5911984019045</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154988</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8295,10 +8295,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>319.4183821282438</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8310,13 +8310,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>54.95314511566545</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154991</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -22556,16 +22556,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>58.85531135525321</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22610,10 +22610,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>379.152890459908</v>
       </c>
     </row>
     <row r="3">
@@ -22705,13 +22705,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -22771,7 +22771,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>110.1124749751914</v>
       </c>
     </row>
     <row r="5">
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>50.29152613728979</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23270,7 +23270,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>50.29152613729002</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>37.25561770506482</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,19 +23461,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>67.18075159108355</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>97.62614779846665</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23659,19 +23659,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>46.45968844823187</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631857309</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,13 +23704,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272841</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>75.37549921168704</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23890,10 +23890,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>65.54986409393817</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23905,10 +23905,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>138.4949402405039</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24127,22 +24127,22 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>57.22910392194386</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>45.4467738245978</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>144.5956654067404</v>
       </c>
       <c r="D25" t="n">
-        <v>119.8635921600923</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24604,19 +24604,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24689,7 +24689,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -24841,19 +24841,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24898,7 +24898,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25078,19 +25078,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>45.44677382459309</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25138,7 +25138,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>57.22910392194675</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25315,19 +25315,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25366,7 +25366,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25549,19 +25549,19 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>144.5956654067404</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.45968844823106</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25837,7 +25837,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26020,7 +26020,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26029,16 +26029,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>43.26526345294991</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>955546.9671374825</v>
+        <v>955546.9671374832</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1011888.930057712</v>
+        <v>1011888.930057711</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1017472.465122681</v>
+        <v>1017472.46512268</v>
       </c>
     </row>
     <row r="7">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>375475.6212503244</v>
+        <v>375475.6212503245</v>
       </c>
       <c r="C2" t="n">
         <v>410520.8849321418</v>
       </c>
       <c r="D2" t="n">
-        <v>410520.8849321416</v>
+        <v>410520.8849321415</v>
       </c>
       <c r="E2" t="n">
         <v>401339.8858190154</v>
       </c>
       <c r="F2" t="n">
-        <v>403573.2998450031</v>
+        <v>403573.2998450029</v>
       </c>
       <c r="G2" t="n">
-        <v>403573.2998450031</v>
+        <v>403573.299845003</v>
       </c>
       <c r="H2" t="n">
-        <v>403573.299845003</v>
+        <v>403573.2998450029</v>
       </c>
       <c r="I2" t="n">
         <v>403573.299845003</v>
       </c>
       <c r="J2" t="n">
+        <v>403573.2998450031</v>
+      </c>
+      <c r="K2" t="n">
         <v>403573.299845003</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
+        <v>403573.299845003</v>
+      </c>
+      <c r="M2" t="n">
         <v>403573.2998450029</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
         <v>403573.2998450031</v>
       </c>
-      <c r="M2" t="n">
-        <v>403573.2998450032</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>403573.299845003</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>403573.2998450031</v>
-      </c>
-      <c r="P2" t="n">
-        <v>403573.299845003</v>
       </c>
     </row>
     <row r="3">
@@ -26369,37 +26369,37 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.140440338</v>
+        <v>192627.1404403379</v>
       </c>
       <c r="E3" t="n">
         <v>313680.0588189856</v>
       </c>
       <c r="F3" t="n">
-        <v>11452.26311504158</v>
+        <v>11452.2631150406</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819077</v>
+        <v>48293.97000819083</v>
       </c>
       <c r="M3" t="n">
-        <v>81924.27863832933</v>
+        <v>81924.27863832924</v>
       </c>
       <c r="N3" t="n">
-        <v>3077.017355704785</v>
+        <v>3077.017355704562</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>96720.90836372903</v>
+        <v>96720.90836372928</v>
       </c>
       <c r="C4" t="n">
-        <v>136726.2736921026</v>
+        <v>136726.2736921025</v>
       </c>
       <c r="D4" t="n">
-        <v>88524.23512810789</v>
+        <v>88524.23512810784</v>
       </c>
       <c r="E4" t="n">
         <v>9330.667735531239</v>
@@ -26430,7 +26430,7 @@
         <v>9337.200356756592</v>
       </c>
       <c r="G4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="H4" t="n">
         <v>9337.200356756592</v>
@@ -26442,19 +26442,19 @@
         <v>9337.200356756592</v>
       </c>
       <c r="K4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.200356756653</v>
       </c>
       <c r="L4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.200356756575</v>
       </c>
       <c r="M4" t="n">
+        <v>9337.200356756606</v>
+      </c>
+      <c r="N4" t="n">
+        <v>9337.200356756613</v>
+      </c>
+      <c r="O4" t="n">
         <v>9337.20035675659</v>
-      </c>
-      <c r="N4" t="n">
-        <v>9337.200356756592</v>
-      </c>
-      <c r="O4" t="n">
-        <v>9337.200356756592</v>
       </c>
       <c r="P4" t="n">
         <v>9337.200356756592</v>
@@ -26479,7 +26479,7 @@
         <v>100142.1285138384</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-928934.843129169</v>
+        <v>-929110.0694475783</v>
       </c>
       <c r="C6" t="n">
-        <v>180856.8388001947</v>
+        <v>180856.8388001945</v>
       </c>
       <c r="D6" t="n">
-        <v>21435.56880230238</v>
+        <v>21435.56880230246</v>
       </c>
       <c r="E6" t="n">
-        <v>-21812.96924933988</v>
+        <v>-21858.87424490551</v>
       </c>
       <c r="F6" t="n">
-        <v>281661.3065492978</v>
+        <v>281626.568623863</v>
       </c>
       <c r="G6" t="n">
-        <v>293113.5696643396</v>
+        <v>293078.8317389035</v>
       </c>
       <c r="H6" t="n">
-        <v>293113.5696643396</v>
+        <v>293078.8317389034</v>
       </c>
       <c r="I6" t="n">
-        <v>293113.5696643393</v>
+        <v>293078.8317389036</v>
       </c>
       <c r="J6" t="n">
-        <v>125508.3918543568</v>
+        <v>125473.6539289211</v>
       </c>
       <c r="K6" t="n">
-        <v>293113.5696643393</v>
+        <v>293078.8317389036</v>
       </c>
       <c r="L6" t="n">
-        <v>244819.5996561486</v>
+        <v>244784.8617307128</v>
       </c>
       <c r="M6" t="n">
-        <v>211189.2910260101</v>
+        <v>211154.5531005742</v>
       </c>
       <c r="N6" t="n">
-        <v>290036.5523086345</v>
+        <v>290001.8143831991</v>
       </c>
       <c r="O6" t="n">
-        <v>293113.5696643394</v>
+        <v>293078.8317389036</v>
       </c>
       <c r="P6" t="n">
-        <v>293113.5696643393</v>
+        <v>293078.8317389037</v>
       </c>
     </row>
   </sheetData>
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26747,7 +26747,7 @@
         <v>1358.041048716386</v>
       </c>
       <c r="F3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="G3" t="n">
         <v>1367.975500341674</v>
@@ -26787,22 +26787,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1160.145290326007</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26957,25 +26957,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757592</v>
+        <v>155.7118084757591</v>
       </c>
       <c r="E3" t="n">
         <v>268.2643481230875</v>
       </c>
       <c r="F3" t="n">
-        <v>9.934451625288375</v>
+        <v>9.934451625287466</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,10 +27018,10 @@
         <v>190.816623302254</v>
       </c>
       <c r="E4" t="n">
-        <v>328.7438349237142</v>
+        <v>328.7438349237141</v>
       </c>
       <c r="F4" t="n">
-        <v>12.56299777364188</v>
+        <v>12.56299777364097</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,19 +27033,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022542</v>
       </c>
       <c r="M4" t="n">
-        <v>328.7438349237144</v>
+        <v>328.7438349237141</v>
       </c>
       <c r="N4" t="n">
-        <v>12.56299777364188</v>
+        <v>12.56299777364097</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,10 +27264,10 @@
         <v>190.816623302254</v>
       </c>
       <c r="M4" t="n">
-        <v>328.7438349237142</v>
+        <v>328.7438349237141</v>
       </c>
       <c r="N4" t="n">
-        <v>12.56299777364188</v>
+        <v>12.56299777364097</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27379,19 +27379,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>248.1774940213547</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>293.4897873054778</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27439,10 +27439,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,25 +27534,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>40.15518892323072</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27594,13 +27594,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27616,25 +27616,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,22 +27664,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>140.0999992973274</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>136.3376730259649</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27780,19 +27780,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>81.06687094810033</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,7 +27822,7 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>173.3923191551821</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27840,7 +27840,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,19 +27853,19 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>106.8874909782318</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>235.6797139073997</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,25 +28011,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,10 +28059,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28071,10 +28071,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>259.8537394682807</v>
       </c>
       <c r="X10" t="n">
-        <v>89.40927272159115</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28330,7 +28330,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-12</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -28342,7 +28342,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28503,7 +28503,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>-7.541226902200529e-12</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -28536,7 +28536,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>4.147674796210292e-12</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -28561,7 +28561,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-3.348081657766396e-13</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28573,7 +28573,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-12</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -28725,7 +28725,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>-5.616669550391446e-12</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -28776,7 +28776,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>3.393552105990239e-12</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -28804,7 +28804,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -28816,7 +28816,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28956,7 +28956,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>-4.713266813875332e-12</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -29016,7 +29016,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>-1.696776052995119e-12</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29749,7 +29749,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -29800,7 +29800,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>-3.410605131648481e-13</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -29937,7 +29937,7 @@
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>-2.241631118489267e-12</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
@@ -30043,7 +30043,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -30232,7 +30232,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -31039,7 +31039,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
         <v>38.45624955336179</v>
@@ -31054,16 +31054,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N2" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P2" t="n">
         <v>539.9786897190645</v>
@@ -31075,7 +31075,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T2" t="n">
         <v>16.4376645838976</v>
@@ -31124,7 +31124,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31136,16 +31136,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
         <v>256.4624964168761</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31230,7 +31230,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
@@ -31239,7 +31239,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31279,43 +31279,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31358,10 +31358,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31370,7 +31370,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
         <v>509.0653662040588</v>
@@ -31379,25 +31379,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,7 +31440,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31455,10 +31455,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31470,13 +31470,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31841,7 +31841,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L12" t="n">
         <v>634.2436048745725</v>
@@ -31850,19 +31850,19 @@
         <v>740.1323715504302</v>
       </c>
       <c r="N12" t="n">
-        <v>759.7214730927639</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>694.9967242426205</v>
+        <v>507.4786487269579</v>
       </c>
       <c r="P12" t="n">
-        <v>344.3187317059969</v>
+        <v>557.7961431982454</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286953</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436714</v>
       </c>
       <c r="S12" t="n">
         <v>54.25758340862161</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422587</v>
+        <v>460.4622569139917</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473074</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862118</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071782</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565758</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485289</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>399.9031616963281</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>320.9147064709969</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,46 +32385,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32552,7 +32552,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>326.7634969305194</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32561,13 +32561,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>526.2989357561996</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32783,7 +32783,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>126.8376266666667</v>
@@ -32795,7 +32795,7 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>232.1537035940586</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
@@ -32804,13 +32804,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33035,13 +33035,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>526.2989357561996</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33257,19 +33257,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>590.4022545401851</v>
       </c>
       <c r="M30" t="n">
-        <v>669.5976799347666</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
@@ -33278,10 +33278,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33494,19 +33494,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>396.970088694367</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
@@ -33515,10 +33515,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>290.1088399635148</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
@@ -33658,7 +33658,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
         <v>867.846407116256</v>
@@ -33734,16 +33734,16 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>175.6052721551106</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>396.970088694367</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
@@ -33752,13 +33752,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33968,34 +33968,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>399.1902208908131</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>729.0844763571695</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34153,7 +34153,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34205,13 +34205,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>266.392684868584</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34223,16 +34223,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34445,19 +34445,19 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>272.7569329364655</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
@@ -34699,19 +34699,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N2" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P2" t="n">
         <v>308.745693963795</v>
@@ -34720,7 +34720,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K3" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>640.5848321000387</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
         <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>214.7252067506226</v>
+        <v>303.0719207327591</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,13 +34854,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
@@ -34869,13 +34869,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,16 +35012,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091739</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K6" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>617.098742766094</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N6" t="n">
         <v>391.1970995928739</v>
@@ -35030,10 +35030,10 @@
         <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>304.6326742391977</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667036</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35091,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
         <v>278.0112915831069</v>
@@ -35103,7 +35103,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
         <v>262.6644876295069</v>
@@ -35112,7 +35112,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35489,7 +35489,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L12" t="n">
         <v>495.6892250946983</v>
@@ -35498,19 +35498,19 @@
         <v>597.9983376284119</v>
       </c>
       <c r="N12" t="n">
-        <v>628.3797610094306</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>552.4004797981761</v>
+        <v>364.8824042825134</v>
       </c>
       <c r="P12" t="n">
-        <v>210.3443242916667</v>
+        <v>423.8217357839152</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>232.8901757426738</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>35.68303457970742</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317199</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902403</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678997</v>
+        <v>322.6208179396327</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M15" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238449</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121313</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625074</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789205</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L18" t="n">
-        <v>261.348781916454</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>189.5729943876636</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36200,7 +36200,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36209,13 +36209,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>394.9572236728663</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -36443,7 +36443,7 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>90.01966967204032</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
@@ -36452,13 +36452,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36683,13 +36683,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>394.9572236728663</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36905,19 +36905,19 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>451.847874760311</v>
       </c>
       <c r="M30" t="n">
-        <v>527.4636460127483</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
@@ -36926,10 +36926,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37142,19 +37142,19 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>254.8360547723487</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
@@ -37163,10 +37163,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>150.1270658774933</v>
       </c>
       <c r="R33" t="n">
         <v>37.00975247789211</v>
@@ -37233,7 +37233,7 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010406</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
@@ -37306,7 +37306,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
@@ -37382,16 +37382,16 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>37.76383318075158</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>254.8360547723487</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
@@ -37400,13 +37400,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>261.3487819164541</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>586.9504424351511</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37801,7 +37801,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,13 +37853,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>128.551245894225</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37871,16 +37871,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38093,19 +38093,19 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>134.2025531565913</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
